--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097489.027848092</v>
+        <v>3094917.073330185</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.2514090645269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.8382509449108</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>165.1468521153387</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.32882004050029</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599749</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>307.7743159237151</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>265.9042934353369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.207802455916</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.9927435506637</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>23.1099832571722</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>25.52471385612597</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>132.6315337216687</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>194.4027115485082</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>354.283994459117</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1540.92109601469</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>502.7251118619119</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>502.7251118619119</v>
+        <v>409.538454714624</v>
       </c>
       <c r="V10" t="n">
-        <v>502.7251118619119</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,13 +5762,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
@@ -6549,16 +6549,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156759</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314346</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944943</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>119.599202296584</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,19 +7260,19 @@
         <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>202.303641104158</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7664,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-6.250036804665917e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.54258064659093</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.62417772602126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>91.59190980143106</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610402</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.74112246243956</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>32.8926045706001</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>92.12028678808278</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670401</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670457</v>
+        <v>5067.592601670412</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670423</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5067.592601670425</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5067.59260167044</v>
+      </c>
+      <c r="M4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="K4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.592601670445</v>
-      </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670422</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670443</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210444</v>
+        <v>-176005.9588210443</v>
       </c>
       <c r="C6" t="n">
-        <v>413961.9203935005</v>
+        <v>413961.9203935002</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203935004</v>
+        <v>413961.9203935002</v>
       </c>
       <c r="E6" t="n">
-        <v>-364488.2904467807</v>
+        <v>-364523.0283722172</v>
       </c>
       <c r="F6" t="n">
-        <v>579884.4873109279</v>
+        <v>579849.7493854922</v>
       </c>
       <c r="G6" t="n">
-        <v>579884.4873109282</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="H6" t="n">
-        <v>579884.4873109282</v>
+        <v>579849.7493854923</v>
       </c>
       <c r="I6" t="n">
-        <v>579884.4873109282</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="J6" t="n">
-        <v>403461.2681183352</v>
+        <v>403426.5301928993</v>
       </c>
       <c r="K6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="L6" t="n">
-        <v>579884.4873109282</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="M6" t="n">
-        <v>455675.9766028696</v>
+        <v>455641.2386774338</v>
       </c>
       <c r="N6" t="n">
-        <v>579884.4873109284</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="O6" t="n">
-        <v>579884.4873109281</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="P6" t="n">
-        <v>579884.4873109283</v>
+        <v>579849.7493854925</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>73.03089870524497</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.9865295915267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4436232970669</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>200.1260396556689</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>120.1051426060689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110327</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>61.95678475475393</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>1.885271837007195</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>581.2949959490413</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>550.5977692975241</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>187.2159464875253</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>359.7678776111906</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>277.2922978908101</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
         <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7406161691672</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>416.6233618831939</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>130.3364854949993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>55.87423440419198</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>217.6338436891722</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>134.6960534463657</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
